--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Automatic Certificate Generater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69846463-F5D4-43F3-B625-C424DF12EDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BFF6BD-0D14-45A6-885D-F78E5B4D6904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Email</t>
   </si>
-  <si>
-    <t>Dhruv</t>
-  </si>
-  <si>
-    <t>dhruvgupta742@gmail.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,14 +49,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,17 +71,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="124.140625" customWidth="1"/>
     <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -394,25 +377,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7DB738E7-972E-4BFF-A41B-E02C2B3DDA8A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>